--- a/secure/26P-Cinthia.xlsx
+++ b/secure/26P-Cinthia.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Cinthia-440711</t>
+    <t>26P-Cinthia-721153</t>
   </si>
   <si>
-    <t>26P-Cinthia-820786</t>
+    <t>26P-Cinthia-260238</t>
   </si>
   <si>
-    <t>26P-Cinthia-776455</t>
+    <t>26P-Cinthia-452648</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F898976a"/>
+        <fgColor rgb="F0723241"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:RM503"/>
+  <dimension ref="A1:SR503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -547,11 +547,14 @@
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>-0.94</v>
       </c>
       <c r="M17" s="4"/>
+      <c r="EU17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -691,14 +694,11 @@
       </c>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:481" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>-0.844</v>
       </c>
       <c r="M41" s="4"/>
-      <c r="RM41" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -844,11 +844,14 @@
       </c>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:512" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>-0.744</v>
       </c>
       <c r="M66" s="4"/>
+      <c r="SR66" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -1378,11 +1381,14 @@
       </c>
       <c r="M154" s="4"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:238" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>-0.388</v>
       </c>
       <c r="M155" s="4"/>
+      <c r="ID155" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
@@ -2254,14 +2260,11 @@
       </c>
       <c r="M300" s="4"/>
     </row>
-    <row r="301" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>0.196</v>
       </c>
       <c r="M301" s="4"/>
-      <c r="AS301" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
@@ -2473,14 +2476,11 @@
       </c>
       <c r="M336" s="4"/>
     </row>
-    <row r="337" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>0.34</v>
       </c>
       <c r="M337" s="4"/>
-      <c r="DF337" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
